--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -439,28 +439,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -485,40 +485,40 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>847</v>
+        <v>935</v>
       </c>
       <c r="K3">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="L3">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
